--- a/Business/Price_Data.xlsx
+++ b/Business/Price_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhauschild\Python_Projects\Financial Risk Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhaus\PycharmProjects\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C6F61-05F8-40E7-85D2-B76345347797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788ADD41-5D19-484A-B9A0-198C9E4C7851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A05193AA-DB9F-47A3-A631-6DBD267F563A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A05193AA-DB9F-47A3-A631-6DBD267F563A}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical_Prices" sheetId="1" r:id="rId1"/>
